--- a/tree_experiments.xlsx
+++ b/tree_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD7F1DBD-98DF-4021-9C8D-81549B9FF4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEBDE54-4971-4E52-971D-20653FD63BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{9CAF851E-AD27-48C7-92B6-3650A93812F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CAF851E-AD27-48C7-92B6-3650A93812F8}"/>
   </bookViews>
   <sheets>
     <sheet name="bst data" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Num_operations</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>for AvlTree:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -528,67 +531,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>4.2307699999999997</c:v>
+                  <c:v>5.1538500000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.0291</c:v>
+                  <c:v>50.019399999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>249.006</c:v>
+                  <c:v>250.00399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>499.00299999999999</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>1249</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2499</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>3749</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>4999</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>7499</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>9999</c:v>
+                  <c:v>500.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61538499999999996</c:v>
+                  <c:v>2.1538499999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9223300000000001</c:v>
+                  <c:v>4.8349500000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0019900000000002</c:v>
+                  <c:v>7.0019900000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4955099999999999</c:v>
+                  <c:v>7.99003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1845800000000004</c:v>
+                  <c:v>9.36876</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6827899999999998</c:v>
+                  <c:v>10.365399999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9550799999999997</c:v>
+                  <c:v>10.91</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.1818499999999998</c:v>
+                  <c:v>11.3636</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.45451</c:v>
+                  <c:v>11.909000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6813500000000001</c:v>
+                  <c:v>12.3626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,67 +633,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>3.3333300000000003E-2</c:v>
+                  <c:v>6.3333299999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5333300000000003</c:v>
+                  <c:v>9.7333300000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>509.16699999999997</c:v>
+                  <c:v>1038.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3283</c:v>
+                  <c:v>7889.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30906.7</c:v>
+                  <c:v>34443.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>237565</c:v>
+                  <c:v>238562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>788440</c:v>
+                  <c:v>825140</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1890930</c:v>
+                  <c:v>1957290</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>6534180</c:v>
+                  <c:v>6839580</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>15662600</c:v>
+                  <c:v>16339200</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.04</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9666700000000001</c:v>
+                  <c:v>6.4333299999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79.333299999999994</c:v>
+                  <c:v>208.167</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>262</c:v>
+                  <c:v>548.33299999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1404.17</c:v>
+                  <c:v>1173.33</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5198.33</c:v>
+                  <c:v>5063.33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11932.5</c:v>
+                  <c:v>11970</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23430</c:v>
+                  <c:v>21356.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59765</c:v>
+                  <c:v>53320</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>97333.3</c:v>
+                  <c:v>95913.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,6 +956,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13144444444444445"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1089,34 +1100,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.2307699999999997</c:v>
+                  <c:v>5.1538500000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.0291</c:v>
+                  <c:v>50.019399999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>249.006</c:v>
+                  <c:v>250.00399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>499.00299999999999</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>1249</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2499</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>3749</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>4999</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>7499</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>9999</c:v>
+                  <c:v>500.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,34 +1169,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.3333300000000003E-2</c:v>
+                  <c:v>6.3333299999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5333300000000003</c:v>
+                  <c:v>9.7333300000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>509.16699999999997</c:v>
+                  <c:v>1038.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3283</c:v>
+                  <c:v>7889.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30906.7</c:v>
+                  <c:v>34443.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>237565</c:v>
+                  <c:v>238562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>788440</c:v>
+                  <c:v>825140</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1890930</c:v>
+                  <c:v>1957290</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>6534180</c:v>
+                  <c:v>6839580</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>15662600</c:v>
+                  <c:v>16339200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,6 +1449,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16554855643044619"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1544,34 +1563,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.61538499999999996</c:v>
+                  <c:v>2.1538499999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9223300000000001</c:v>
+                  <c:v>4.8349500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0019900000000002</c:v>
+                  <c:v>7.0019900000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4955099999999999</c:v>
+                  <c:v>7.99003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1845800000000004</c:v>
+                  <c:v>9.36876</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6827899999999998</c:v>
+                  <c:v>10.365399999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9550799999999997</c:v>
+                  <c:v>10.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1818499999999998</c:v>
+                  <c:v>11.3636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.45451</c:v>
+                  <c:v>11.909000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6813500000000001</c:v>
+                  <c:v>12.3626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,34 +1671,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9666700000000001</c:v>
+                  <c:v>6.4333299999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.333299999999994</c:v>
+                  <c:v>208.167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262</c:v>
+                  <c:v>548.33299999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1404.17</c:v>
+                  <c:v>1173.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5198.33</c:v>
+                  <c:v>5063.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11932.5</c:v>
+                  <c:v>11970</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23430</c:v>
+                  <c:v>21356.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59765</c:v>
+                  <c:v>53320</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97333.3</c:v>
+                  <c:v>95913.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3520,16 +3539,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3556,16 +3575,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3592,16 +3611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3926,10 +3945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A41DD0E-3491-4976-88A8-A521A626AFBF}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3939,7 +3958,7 @@
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +3975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3970,13 +3989,13 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>4.2307699999999997</v>
+        <v>5.1538500000000003</v>
       </c>
       <c r="F2">
-        <v>3.3333300000000003E-2</v>
+        <v>6.3333299999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3990,13 +4009,13 @@
         <v>101</v>
       </c>
       <c r="E3">
-        <v>49.0291</v>
+        <v>50.019399999999997</v>
       </c>
       <c r="F3">
-        <v>5.5333300000000003</v>
+        <v>9.7333300000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4010,13 +4029,13 @@
         <v>501</v>
       </c>
       <c r="E4">
-        <v>249.006</v>
+        <v>250.00399999999999</v>
       </c>
       <c r="F4">
-        <v>509.16699999999997</v>
+        <v>1038.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4030,13 +4049,13 @@
         <v>1001</v>
       </c>
       <c r="E5">
-        <v>499.00299999999999</v>
+        <v>500.00200000000001</v>
       </c>
       <c r="F5">
-        <v>3283</v>
+        <v>7889.33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4049,14 +4068,14 @@
       <c r="D6">
         <v>2501</v>
       </c>
-      <c r="E6" s="1">
-        <v>1249</v>
+      <c r="E6">
+        <v>1250</v>
       </c>
       <c r="F6">
-        <v>30906.7</v>
+        <v>34443.300000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4069,14 +4088,14 @@
       <c r="D7">
         <v>5001</v>
       </c>
-      <c r="E7" s="1">
-        <v>2499</v>
+      <c r="E7">
+        <v>2500</v>
       </c>
       <c r="F7">
-        <v>237565</v>
+        <v>238562</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4089,14 +4108,14 @@
       <c r="D8">
         <v>7501</v>
       </c>
-      <c r="E8" s="1">
-        <v>3749</v>
+      <c r="E8">
+        <v>3750</v>
       </c>
       <c r="F8">
-        <v>788440</v>
+        <v>825140</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4109,14 +4128,14 @@
       <c r="D9">
         <v>10001</v>
       </c>
-      <c r="E9" s="1">
-        <v>4999</v>
+      <c r="E9">
+        <v>5000</v>
       </c>
       <c r="F9" s="1">
-        <v>1890930</v>
+        <v>1957290</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4129,14 +4148,14 @@
       <c r="D10">
         <v>15001</v>
       </c>
-      <c r="E10" s="1">
-        <v>7499</v>
+      <c r="E10">
+        <v>7500</v>
       </c>
       <c r="F10" s="1">
-        <v>6534180</v>
+        <v>6839580</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4149,19 +4168,24 @@
       <c r="D11">
         <v>20001</v>
       </c>
-      <c r="E11" s="1">
-        <v>9999</v>
+      <c r="E11">
+        <v>10000</v>
       </c>
       <c r="F11" s="1">
-        <v>15662600</v>
+        <v>16339200</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -4178,7 +4202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4192,13 +4216,13 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>0.61538499999999996</v>
+        <v>2.1538499999999998</v>
       </c>
       <c r="F15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -4212,10 +4236,10 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>1.9223300000000001</v>
+        <v>4.8349500000000001</v>
       </c>
       <c r="F16">
-        <v>3.9666700000000001</v>
+        <v>6.4333299999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4232,10 +4256,10 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>3.0019900000000002</v>
+        <v>7.0019900000000002</v>
       </c>
       <c r="F17">
-        <v>79.333299999999994</v>
+        <v>208.167</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4252,10 +4276,10 @@
         <v>9</v>
       </c>
       <c r="E18">
-        <v>3.4955099999999999</v>
+        <v>7.99003</v>
       </c>
       <c r="F18">
-        <v>262</v>
+        <v>548.33299999999997</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4272,10 +4296,10 @@
         <v>11</v>
       </c>
       <c r="E19">
-        <v>4.1845800000000004</v>
+        <v>9.36876</v>
       </c>
       <c r="F19">
-        <v>1404.17</v>
+        <v>1173.33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4292,10 +4316,10 @@
         <v>12</v>
       </c>
       <c r="E20">
-        <v>4.6827899999999998</v>
+        <v>10.365399999999999</v>
       </c>
       <c r="F20">
-        <v>5198.33</v>
+        <v>5063.33</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,10 +4336,10 @@
         <v>12</v>
       </c>
       <c r="E21">
-        <v>4.9550799999999997</v>
+        <v>10.91</v>
       </c>
       <c r="F21">
-        <v>11932.5</v>
+        <v>11970</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4332,10 +4356,10 @@
         <v>13</v>
       </c>
       <c r="E22">
-        <v>5.1818499999999998</v>
+        <v>11.3636</v>
       </c>
       <c r="F22">
-        <v>23430</v>
+        <v>21356.7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4352,10 +4376,10 @@
         <v>13</v>
       </c>
       <c r="E23">
-        <v>5.45451</v>
+        <v>11.909000000000001</v>
       </c>
       <c r="F23">
-        <v>59765</v>
+        <v>53320</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4372,10 +4396,10 @@
         <v>14</v>
       </c>
       <c r="E24">
-        <v>5.6813500000000001</v>
+        <v>12.3626</v>
       </c>
       <c r="F24">
-        <v>97333.3</v>
+        <v>95913.3</v>
       </c>
     </row>
   </sheetData>
@@ -4386,12 +4410,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4541,15 +4562,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDA0A914-7FDB-47A9-957F-EDD893E90053}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4CF63B5-54BE-4E1C-B104-E616C84C05BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2979b079-f030-4ccc-80c8-eee2f09f0b6e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4573,17 +4605,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4CF63B5-54BE-4E1C-B104-E616C84C05BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDA0A914-7FDB-47A9-957F-EDD893E90053}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2979b079-f030-4ccc-80c8-eee2f09f0b6e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>